--- a/data/trans_orig/DC_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/DC_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5B77B7B-6007-43E3-9130-17216549F601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8D98EDA-D2DF-430E-85D9-543BC092B68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D90E71D9-C96F-4E3C-8798-A4ADAAA9668C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DAA1239F-D053-4840-A6A8-5C4CE6CB96F4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>38,04%</t>
   </si>
   <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
   </si>
   <si>
     <t>59,1%</t>
   </si>
   <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
   </si>
   <si>
     <t>50,82%</t>
   </si>
   <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>61,96%</t>
   </si>
   <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
   </si>
   <si>
     <t>40,9%</t>
   </si>
   <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
   </si>
   <si>
     <t>49,18%</t>
   </si>
   <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,7 +137,7 @@
     <t>21,35%</t>
   </si>
   <si>
-    <t>18,95%</t>
+    <t>19,1%</t>
   </si>
   <si>
     <t>23,35%</t>
@@ -146,19 +146,19 @@
     <t>38,88%</t>
   </si>
   <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
   </si>
   <si>
     <t>30,29%</t>
   </si>
   <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
   </si>
   <si>
     <t>78,65%</t>
@@ -167,25 +167,25 @@
     <t>76,65%</t>
   </si>
   <si>
-    <t>81,05%</t>
+    <t>80,9%</t>
   </si>
   <si>
     <t>61,12%</t>
   </si>
   <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
   </si>
   <si>
     <t>69,71%</t>
   </si>
   <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,109 +194,109 @@
     <t>17,1%</t>
   </si>
   <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
   </si>
   <si>
     <t>33,83%</t>
   </si>
   <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
   </si>
   <si>
     <t>25,71%</t>
   </si>
   <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
   </si>
   <si>
     <t>82,9%</t>
   </si>
   <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
   </si>
   <si>
     <t>66,17%</t>
   </si>
   <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
   </si>
   <si>
     <t>74,29%</t>
   </si>
   <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
   </si>
   <si>
     <t>23,18%</t>
   </si>
   <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
   </si>
   <si>
     <t>42,38%</t>
   </si>
   <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
   </si>
   <si>
     <t>33,35%</t>
   </si>
   <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
   </si>
   <si>
     <t>76,82%</t>
   </si>
   <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
   </si>
   <si>
     <t>57,62%</t>
   </si>
   <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
   </si>
   <si>
     <t>66,65%</t>
   </si>
   <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69125C81-8923-4FBD-BE94-43ED5064D41E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F43348D-57B0-43EA-814D-32AF65A3F10F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1053,7 +1053,7 @@
         <v>1809</v>
       </c>
       <c r="I8" s="7">
-        <v>1374807</v>
+        <v>1374808</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1104,7 +1104,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1348,7 +1348,7 @@
         <v>2472</v>
       </c>
       <c r="D14" s="7">
-        <v>2594039</v>
+        <v>2594038</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1378,7 +1378,7 @@
         <v>5504</v>
       </c>
       <c r="N14" s="7">
-        <v>4783150</v>
+        <v>4783149</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -1399,7 +1399,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1429,7 +1429,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/DC_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/DC_R-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8D98EDA-D2DF-430E-85D9-543BC092B68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6660E7DF-6C5B-4E9E-8F2B-C82B15E0AF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DAA1239F-D053-4840-A6A8-5C4CE6CB96F4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C928EAD0-DBBF-4752-AFD3-6BA4FD48EF7E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F43348D-57B0-43EA-814D-32AF65A3F10F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE299C60-5150-4833-AC0D-D1BF130CA1BD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/DC_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/DC_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6660E7DF-6C5B-4E9E-8F2B-C82B15E0AF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15AE179C-90CD-4479-B270-94DFA9AFE0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C928EAD0-DBBF-4752-AFD3-6BA4FD48EF7E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0188D4F1-6575-415A-B653-0FAADE4E2904}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>38,04%</t>
   </si>
   <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
   </si>
   <si>
     <t>59,1%</t>
   </si>
   <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
   </si>
   <si>
     <t>50,82%</t>
   </si>
   <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>61,96%</t>
   </si>
   <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
   </si>
   <si>
     <t>40,9%</t>
   </si>
   <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
   </si>
   <si>
     <t>49,18%</t>
   </si>
   <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,7 +137,7 @@
     <t>21,35%</t>
   </si>
   <si>
-    <t>19,1%</t>
+    <t>18,95%</t>
   </si>
   <si>
     <t>23,35%</t>
@@ -146,19 +146,19 @@
     <t>38,88%</t>
   </si>
   <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
   </si>
   <si>
     <t>30,29%</t>
   </si>
   <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
   </si>
   <si>
     <t>78,65%</t>
@@ -167,25 +167,25 @@
     <t>76,65%</t>
   </si>
   <si>
-    <t>80,9%</t>
+    <t>81,05%</t>
   </si>
   <si>
     <t>61,12%</t>
   </si>
   <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
   </si>
   <si>
     <t>69,71%</t>
   </si>
   <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,109 +194,109 @@
     <t>17,1%</t>
   </si>
   <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
   </si>
   <si>
     <t>33,83%</t>
   </si>
   <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
   </si>
   <si>
     <t>25,71%</t>
   </si>
   <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
   </si>
   <si>
     <t>82,9%</t>
   </si>
   <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
   </si>
   <si>
     <t>66,17%</t>
   </si>
   <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
   </si>
   <si>
     <t>74,29%</t>
   </si>
   <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
   </si>
   <si>
     <t>23,18%</t>
   </si>
   <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
   </si>
   <si>
     <t>42,38%</t>
   </si>
   <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
   </si>
   <si>
     <t>33,35%</t>
   </si>
   <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
   </si>
   <si>
     <t>76,82%</t>
   </si>
   <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
   </si>
   <si>
     <t>57,62%</t>
   </si>
   <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
   </si>
   <si>
     <t>66,65%</t>
   </si>
   <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE299C60-5150-4833-AC0D-D1BF130CA1BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66552721-3F11-49F7-A0CB-C1380C9C6313}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1053,7 +1053,7 @@
         <v>1809</v>
       </c>
       <c r="I8" s="7">
-        <v>1374808</v>
+        <v>1374807</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1104,7 +1104,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1348,7 +1348,7 @@
         <v>2472</v>
       </c>
       <c r="D14" s="7">
-        <v>2594038</v>
+        <v>2594039</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1378,7 +1378,7 @@
         <v>5504</v>
       </c>
       <c r="N14" s="7">
-        <v>4783149</v>
+        <v>4783150</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -1399,7 +1399,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1429,7 +1429,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176054</v>
+        <v>7176055</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/DC_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/DC_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15AE179C-90CD-4479-B270-94DFA9AFE0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D9275AD-6DCB-47B6-9A1D-7F7CCBF30382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0188D4F1-6575-415A-B653-0FAADE4E2904}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{81532724-D8B5-4F43-A778-DDD164DB0913}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,169 +134,169 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
   </si>
   <si>
     <t>23,35%</t>
   </si>
   <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
   </si>
   <si>
     <t>76,65%</t>
   </si>
   <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66552721-3F11-49F7-A0CB-C1380C9C6313}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339910FA-0AF0-43DA-981C-59BDE662D86E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -832,7 +832,7 @@
         <v>280</v>
       </c>
       <c r="D4" s="7">
-        <v>206026</v>
+        <v>192378</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -847,7 +847,7 @@
         <v>868</v>
       </c>
       <c r="I4" s="7">
-        <v>494062</v>
+        <v>444551</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -862,7 +862,7 @@
         <v>1148</v>
       </c>
       <c r="N4" s="7">
-        <v>700088</v>
+        <v>636929</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -883,7 +883,7 @@
         <v>411</v>
       </c>
       <c r="D5" s="7">
-        <v>335608</v>
+        <v>322560</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -898,7 +898,7 @@
         <v>559</v>
       </c>
       <c r="I5" s="7">
-        <v>341891</v>
+        <v>310957</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -913,7 +913,7 @@
         <v>970</v>
       </c>
       <c r="N5" s="7">
-        <v>677498</v>
+        <v>633517</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -934,7 +934,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -949,7 +949,7 @@
         <v>1427</v>
       </c>
       <c r="I6" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -964,7 +964,7 @@
         <v>2118</v>
       </c>
       <c r="N6" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -987,7 +987,7 @@
         <v>486</v>
       </c>
       <c r="D7" s="7">
-        <v>461523</v>
+        <v>441162</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1002,7 +1002,7 @@
         <v>1112</v>
       </c>
       <c r="I7" s="7">
-        <v>874713</v>
+        <v>963255</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1017,7 +1017,7 @@
         <v>1598</v>
       </c>
       <c r="N7" s="7">
-        <v>1336236</v>
+        <v>1404417</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1038,7 +1038,7 @@
         <v>1506</v>
       </c>
       <c r="D8" s="7">
-        <v>1700499</v>
+        <v>1849165</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1053,7 +1053,7 @@
         <v>1809</v>
       </c>
       <c r="I8" s="7">
-        <v>1374807</v>
+        <v>1274568</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1068,7 +1068,7 @@
         <v>3315</v>
       </c>
       <c r="N8" s="7">
-        <v>3075307</v>
+        <v>3123733</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1089,7 +1089,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1104,7 +1104,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1119,7 +1119,7 @@
         <v>4913</v>
       </c>
       <c r="N9" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1142,7 +1142,7 @@
         <v>126</v>
       </c>
       <c r="D10" s="7">
-        <v>115107</v>
+        <v>110053</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1157,7 +1157,7 @@
         <v>340</v>
       </c>
       <c r="I10" s="7">
-        <v>241474</v>
+        <v>222877</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1172,7 +1172,7 @@
         <v>466</v>
       </c>
       <c r="N10" s="7">
-        <v>356582</v>
+        <v>332930</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1193,7 +1193,7 @@
         <v>555</v>
       </c>
       <c r="D11" s="7">
-        <v>557932</v>
+        <v>536570</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1208,7 +1208,7 @@
         <v>664</v>
       </c>
       <c r="I11" s="7">
-        <v>472412</v>
+        <v>437586</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1223,7 +1223,7 @@
         <v>1219</v>
       </c>
       <c r="N11" s="7">
-        <v>1030344</v>
+        <v>974156</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1244,7 +1244,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1259,7 +1259,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1274,7 +1274,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1297,7 +1297,7 @@
         <v>892</v>
       </c>
       <c r="D13" s="7">
-        <v>782656</v>
+        <v>743594</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1312,7 +1312,7 @@
         <v>2320</v>
       </c>
       <c r="I13" s="7">
-        <v>1610249</v>
+        <v>1630683</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1327,7 +1327,7 @@
         <v>3212</v>
       </c>
       <c r="N13" s="7">
-        <v>2392905</v>
+        <v>2374277</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -1348,7 +1348,7 @@
         <v>2472</v>
       </c>
       <c r="D14" s="7">
-        <v>2594039</v>
+        <v>2708295</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1363,7 +1363,7 @@
         <v>3032</v>
       </c>
       <c r="I14" s="7">
-        <v>2189111</v>
+        <v>2023111</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -1378,7 +1378,7 @@
         <v>5504</v>
       </c>
       <c r="N14" s="7">
-        <v>4783150</v>
+        <v>4731406</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -1399,7 +1399,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1414,7 +1414,7 @@
         <v>5352</v>
       </c>
       <c r="I15" s="7">
-        <v>3799360</v>
+        <v>3653794</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1429,7 +1429,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176055</v>
+        <v>7105683</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
